--- a/docentes/Sánchez Sánchez Miguel Estadisticos 2020.xlsx
+++ b/docentes/Sánchez Sánchez Miguel Estadisticos 2020.xlsx
@@ -856,7 +856,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -879,7 +879,7 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
